--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\v3 - WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4A6A2-41EF-4D5D-B67E-E12D51113D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F641B01A-D52B-4571-B8F8-AED72847F8A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FXOS DC1 Settings" sheetId="1" r:id="rId1"/>
+    <sheet name="FXOS DC2 Settings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="156">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -475,6 +476,24 @@
   </si>
   <si>
     <t># Access List Restrictions (leave blank if none required)</t>
+  </si>
+  <si>
+    <t>Interface Name</t>
+  </si>
+  <si>
+    <t>Port Type</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Duplex</t>
+  </si>
+  <si>
+    <t># Port-Channel Configuration</t>
+  </si>
+  <si>
+    <t>Portchannel</t>
   </si>
 </sst>
 </file>
@@ -803,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G59" sqref="A52:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -1621,7 +1640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -1630,6 +1649,90 @@
       </c>
       <c r="C50">
         <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1666,5 +1769,958 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317FE24-6344-4996-8321-5D3A5D44D647}">
+  <dimension ref="A1:S58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="3">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="3">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37">
+        <v>1812</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38">
+        <v>1812</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42">
+        <v>490</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C34" xr:uid="{BC04EA6B-7ABC-4F41-B445-85BD841EED41}">
+      <formula1>$L$4:$S$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H23" xr:uid="{5D017BA2-4C33-4B7D-A84F-995C964306D5}">
+      <formula1>$L$2:$M$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B20:B21" xr:uid="{CAC3C1D7-6484-44EE-8DFF-ECF83CA7FB8E}">
+      <formula1>$L$1:$N$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C16" xr:uid="{094AB387-E34B-45BE-972C-552B3B681EFD}">
+      <formula1>$L$10:$M$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G16" xr:uid="{57BE3854-8F43-4C4F-8286-5A892BC0F4E8}">
+      <formula1>$L$9:$M$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F16" xr:uid="{037E6368-FFAA-48A4-9196-91AE9CAD84C7}">
+      <formula1>$L$8:$Q$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16" xr:uid="{8306093F-74E8-400F-B45D-1C8E9674DD87}">
+      <formula1>$L$6:$P$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E16" xr:uid="{7095F5B7-DB47-4878-B269-A7C863E4DDFB}">
+      <formula1>$L$7:$M$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25 H28:H31" xr:uid="{361B9DBC-7059-4F29-BC57-4981405E18CA}">
+      <formula1>$O$6:$P$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24:G25 G28:G31" xr:uid="{7E1AF9DD-2C60-48FB-A23A-758E74B5CB75}">
+      <formula1>$O$3:$Q$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F641B01A-D52B-4571-B8F8-AED72847F8A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D652366-D3AC-4F7B-BCAB-D91C268FA864}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FXOS DC1 Settings" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -494,6 +494,84 @@
   </si>
   <si>
     <t>Portchannel</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Member Interface</t>
+  </si>
+  <si>
+    <t>Ethernet1/4</t>
+  </si>
+  <si>
+    <t>Ethernet1/5</t>
+  </si>
+  <si>
+    <t>Ethernet1/6</t>
+  </si>
+  <si>
+    <t>Ethernet1/7</t>
+  </si>
+  <si>
+    <t>Ethernet1/8</t>
+  </si>
+  <si>
+    <t>Ethernet2/1</t>
+  </si>
+  <si>
+    <t>Ethernet2/2</t>
+  </si>
+  <si>
+    <t>Ethernet2/3</t>
+  </si>
+  <si>
+    <t>Ethernet2/4</t>
+  </si>
+  <si>
+    <t>Ethernet2/5</t>
+  </si>
+  <si>
+    <t>Ethernet2/6</t>
+  </si>
+  <si>
+    <t># Logical Device Configuration</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>Slot Number</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>Software Version</t>
+  </si>
+  <si>
+    <t>ASA1</t>
+  </si>
+  <si>
+    <t>9.12.1</t>
+  </si>
+  <si>
+    <t>Management Interface</t>
+  </si>
+  <si>
+    <t>Portchannel30</t>
+  </si>
+  <si>
+    <t>Nameif</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>management link</t>
   </si>
 </sst>
 </file>
@@ -822,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G59" sqref="A52:G59"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -1640,7 +1718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -1651,7 +1729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1752,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1720,19 +1798,162 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>158</v>
+      </c>
+      <c r="L57" t="s">
+        <v>159</v>
+      </c>
+      <c r="M57" t="s">
+        <v>160</v>
+      </c>
+      <c r="N57" t="s">
+        <v>161</v>
+      </c>
+      <c r="O57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>155</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" t="s">
+        <v>164</v>
+      </c>
+      <c r="J58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1775,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317FE24-6344-4996-8321-5D3A5D44D647}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:G59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,14 +2009,11 @@
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="9" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2582,7 +2800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -2593,7 +2811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2604,7 +2822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2845,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2650,7 +2868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2673,19 +2891,208 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>158</v>
+      </c>
+      <c r="L57" t="s">
+        <v>159</v>
+      </c>
+      <c r="M57" t="s">
+        <v>160</v>
+      </c>
+      <c r="N57" t="s">
+        <v>161</v>
+      </c>
+      <c r="O57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>155</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" t="s">
+        <v>164</v>
+      </c>
+      <c r="J58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D652366-D3AC-4F7B-BCAB-D91C268FA864}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C0BD9-11A3-4849-BE50-B4845B9E642B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FXOS DC1 Settings" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="214">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -535,9 +535,6 @@
     <t>Ethernet2/6</t>
   </si>
   <si>
-    <t># Logical Device Configuration</t>
-  </si>
-  <si>
     <t>ASA</t>
   </si>
   <si>
@@ -559,9 +556,6 @@
     <t>Management Interface</t>
   </si>
   <si>
-    <t>Portchannel30</t>
-  </si>
-  <si>
     <t>Nameif</t>
   </si>
   <si>
@@ -571,7 +565,109 @@
     <t>Description</t>
   </si>
   <si>
-    <t>management link</t>
+    <t>Interface 1</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>inside interface</t>
+  </si>
+  <si>
+    <t>Interface 2</t>
+  </si>
+  <si>
+    <t>Port-channel 30</t>
+  </si>
+  <si>
+    <t>Port-channel 10</t>
+  </si>
+  <si>
+    <t>Port-channel 20</t>
+  </si>
+  <si>
+    <t>Port-channel</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>outside interface</t>
+  </si>
+  <si>
+    <t>Interface 3</t>
+  </si>
+  <si>
+    <t>Ethernet2/7</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>DMZ interface</t>
+  </si>
+  <si>
+    <t>Interface 4</t>
+  </si>
+  <si>
+    <t>Ethernet2/8</t>
+  </si>
+  <si>
+    <t>DMZ2</t>
+  </si>
+  <si>
+    <t>DMZ2 interface</t>
+  </si>
+  <si>
+    <t>Firewall Mode</t>
+  </si>
+  <si>
+    <t>routed</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>cisco123</t>
+  </si>
+  <si>
+    <t>Management IP</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>Default Gateway</t>
+  </si>
+  <si>
+    <t>192.168.1.10</t>
+  </si>
+  <si>
+    <t>Subnet Mask</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>FTD</t>
+  </si>
+  <si>
+    <t># ASA Logical Device Configuration</t>
+  </si>
+  <si>
+    <t># FTD Logical Device Configuration</t>
+  </si>
+  <si>
+    <t>FTD1</t>
+  </si>
+  <si>
+    <t>192.168.1.20</t>
+  </si>
+  <si>
+    <t>6.2.3.83</t>
+  </si>
+  <si>
+    <t>management interface</t>
   </si>
 </sst>
 </file>
@@ -1996,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317FE24-6344-4996-8321-5D3A5D44D647}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,11 +2107,16 @@
     <col min="5" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -2800,7 +2901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -2811,7 +2912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2822,7 +2923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -2845,7 +2946,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2868,7 +2969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2891,7 +2992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
@@ -2938,9 +3039,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -2975,19 +3076,10 @@
       <c r="L57" t="s">
         <v>159</v>
       </c>
-      <c r="M57" t="s">
-        <v>160</v>
-      </c>
-      <c r="N57" t="s">
-        <v>161</v>
-      </c>
-      <c r="O57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B58">
         <v>20</v>
@@ -3020,9 +3112,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B59">
         <v>30</v>
@@ -3049,50 +3141,282 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>169</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>170</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
         <v>174</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" t="s">
+        <v>206</v>
+      </c>
+      <c r="I62" t="s">
+        <v>202</v>
+      </c>
+      <c r="J62" t="s">
+        <v>183</v>
+      </c>
+      <c r="K62" t="s">
+        <v>177</v>
+      </c>
+      <c r="L62" t="s">
+        <v>213</v>
+      </c>
+      <c r="M62" t="s">
+        <v>184</v>
+      </c>
+      <c r="N62" t="s">
+        <v>180</v>
+      </c>
+      <c r="O62" t="s">
+        <v>181</v>
+      </c>
+      <c r="P62" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>187</v>
+      </c>
+      <c r="R62" t="s">
+        <v>188</v>
+      </c>
+      <c r="S62" t="s">
+        <v>190</v>
+      </c>
+      <c r="T62" t="s">
+        <v>191</v>
+      </c>
+      <c r="U62" t="s">
+        <v>192</v>
+      </c>
+      <c r="V62" t="s">
+        <v>194</v>
+      </c>
+      <c r="W62" t="s">
+        <v>195</v>
+      </c>
+      <c r="X62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E62" t="s">
+      <c r="K64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" t="s">
+        <v>200</v>
+      </c>
+      <c r="G65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65" t="s">
+        <v>162</v>
+      </c>
+      <c r="K65" t="s">
         <v>177</v>
       </c>
-      <c r="F62" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="L65" t="s">
+        <v>213</v>
+      </c>
+      <c r="M65" t="s">
+        <v>160</v>
+      </c>
+      <c r="N65" t="s">
+        <v>180</v>
+      </c>
+      <c r="O65" t="s">
         <v>181</v>
+      </c>
+      <c r="P65" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>187</v>
+      </c>
+      <c r="R65" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C0BD9-11A3-4849-BE50-B4845B9E642B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A7701-3F61-4F9E-B0BC-FE7D71275B44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="225">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -668,6 +668,39 @@
   </si>
   <si>
     <t>management interface</t>
+  </si>
+  <si>
+    <t>FMC IP</t>
+  </si>
+  <si>
+    <t>Registration Key</t>
+  </si>
+  <si>
+    <t>FDQN</t>
+  </si>
+  <si>
+    <t>DNS Server 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS Server 2 </t>
+  </si>
+  <si>
+    <t>DNS Server 3</t>
+  </si>
+  <si>
+    <t>Search Domain</t>
+  </si>
+  <si>
+    <t>cisco.com</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>ftd1.cisco.com</t>
+  </si>
+  <si>
+    <t>192.168.1.200</t>
   </si>
 </sst>
 </file>
@@ -2092,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317FE24-6344-4996-8321-5D3A5D44D647}">
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,7 +2934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -2912,7 +2945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2923,7 +2956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -2946,7 +2979,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +3002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2992,7 +3025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>154</v>
       </c>
@@ -3039,7 +3072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -3077,7 +3110,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -3112,7 +3145,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -3141,7 +3174,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>208</v>
       </c>
@@ -3215,7 +3248,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>169</v>
       </c>
@@ -3289,7 +3322,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>209</v>
       </c>
@@ -3318,52 +3351,73 @@
         <v>203</v>
       </c>
       <c r="J64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="S64" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="T64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="U64" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="V64" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="W64" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="X64" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="Y64" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="Z64" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="AA64" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="U64" s="1" t="s">
+      <c r="AB64" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="AC64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="AD64" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="X64" s="1" t="s">
+      <c r="AE64" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -3392,31 +3446,63 @@
         <v>202</v>
       </c>
       <c r="J65" t="s">
+        <v>224</v>
+      </c>
+      <c r="K65" t="s">
+        <v>200</v>
+      </c>
+      <c r="L65" t="s">
+        <v>223</v>
+      </c>
+      <c r="M65" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>222</v>
+      </c>
+      <c r="O65" t="s">
+        <v>3</v>
+      </c>
+      <c r="P65" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q65" t="s">
         <v>162</v>
       </c>
-      <c r="K65" t="s">
+      <c r="R65" t="s">
         <v>177</v>
       </c>
-      <c r="L65" t="s">
+      <c r="S65" t="s">
         <v>213</v>
       </c>
-      <c r="M65" t="s">
+      <c r="T65" t="s">
         <v>160</v>
       </c>
-      <c r="N65" t="s">
+      <c r="U65" t="s">
         <v>180</v>
       </c>
-      <c r="O65" t="s">
+      <c r="V65" t="s">
         <v>181</v>
       </c>
-      <c r="P65" t="s">
+      <c r="W65" t="s">
         <v>161</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="X65" t="s">
         <v>187</v>
       </c>
-      <c r="R65" t="s">
+      <c r="Y65" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>9</v>
+      </c>
+      <c r="M66">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A7701-3F61-4F9E-B0BC-FE7D71275B44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C34CB49-2D30-4719-8FB9-4670AC08F7E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="224">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t># Port-Channel Configuration</t>
-  </si>
-  <si>
-    <t>Portchannel</t>
   </si>
   <si>
     <t>ID</t>
@@ -1029,1106 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="3">
-        <v>162</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="3">
-        <v>162</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37">
-        <v>1812</v>
-      </c>
-      <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38">
-        <v>1812</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42">
-        <v>490</v>
-      </c>
-      <c r="D42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>155</v>
-      </c>
-      <c r="B57">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" t="s">
-        <v>158</v>
-      </c>
-      <c r="L57" t="s">
-        <v>159</v>
-      </c>
-      <c r="M57" t="s">
-        <v>160</v>
-      </c>
-      <c r="N57" t="s">
-        <v>161</v>
-      </c>
-      <c r="O57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58" t="s">
-        <v>164</v>
-      </c>
-      <c r="J58" t="s">
-        <v>165</v>
-      </c>
-      <c r="K58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" t="s">
-        <v>167</v>
-      </c>
-      <c r="I59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24:G25 G28:G31" xr:uid="{4D867D4C-441E-4792-9F44-EEB51DA50801}">
-      <formula1>$O$3:$Q$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25 H28:H31" xr:uid="{A569C039-289D-497F-BFEA-3A53B826ABA1}">
-      <formula1>$O$6:$P$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E16" xr:uid="{59EC7811-7440-48D3-8F7C-1C7F3EA99C4D}">
-      <formula1>$L$7:$M$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16" xr:uid="{840A3B68-604B-48D8-BAF6-1DFE5BAC1366}">
-      <formula1>$L$6:$P$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F16" xr:uid="{0FE2EA1C-C2FD-458A-8A1D-90629C556C62}">
-      <formula1>$L$8:$Q$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G16" xr:uid="{75E13F8A-7CA1-49B1-8316-EF2E17D70D4A}">
-      <formula1>$L$9:$M$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C16" xr:uid="{CEE840F2-DA76-46E5-8F02-4CA9012CAE12}">
-      <formula1>$L$10:$M$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B20:B21" xr:uid="{B82692C7-1652-4451-9D98-DEC791261FA8}">
-      <formula1>$L$1:$N$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H23" xr:uid="{01B1484D-D7BE-4F28-AD47-7FAAA0604856}">
-      <formula1>$L$2:$M$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C34" xr:uid="{0B01C6EB-92F5-4ACE-BBC4-DC3ED2740691}">
-      <formula1>$L$4:$S$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317FE24-6344-4996-8321-5D3A5D44D647}">
-  <dimension ref="A1:AE66"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,7 +1050,10 @@
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -3030,7 +1934,7 @@
         <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>151</v>
@@ -3048,33 +1952,33 @@
         <v>85</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57">
         <v>10</v>
@@ -3104,15 +2008,15 @@
         <v>22</v>
       </c>
       <c r="K57" t="s">
+        <v>157</v>
+      </c>
+      <c r="L57" t="s">
         <v>158</v>
-      </c>
-      <c r="L57" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58">
         <v>20</v>
@@ -3133,21 +2037,21 @@
         <v>75</v>
       </c>
       <c r="H58" t="s">
+        <v>162</v>
+      </c>
+      <c r="I58" t="s">
         <v>163</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>164</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>165</v>
-      </c>
-      <c r="K58" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59">
         <v>30</v>
@@ -3168,330 +2072,330 @@
         <v>75</v>
       </c>
       <c r="H59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" t="s">
         <v>167</v>
-      </c>
-      <c r="I59" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="L61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="N61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
         <v>173</v>
       </c>
-      <c r="D62" t="s">
-        <v>174</v>
-      </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J62" t="s">
+        <v>182</v>
+      </c>
+      <c r="K62" t="s">
+        <v>176</v>
+      </c>
+      <c r="L62" t="s">
+        <v>212</v>
+      </c>
+      <c r="M62" t="s">
         <v>183</v>
       </c>
-      <c r="K62" t="s">
-        <v>177</v>
-      </c>
-      <c r="L62" t="s">
-        <v>213</v>
-      </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
+        <v>179</v>
+      </c>
+      <c r="O62" t="s">
+        <v>180</v>
+      </c>
+      <c r="P62" t="s">
         <v>184</v>
       </c>
-      <c r="N62" t="s">
-        <v>180</v>
-      </c>
-      <c r="O62" t="s">
-        <v>181</v>
-      </c>
-      <c r="P62" t="s">
-        <v>185</v>
-      </c>
       <c r="Q62" t="s">
+        <v>186</v>
+      </c>
+      <c r="R62" t="s">
         <v>187</v>
       </c>
-      <c r="R62" t="s">
-        <v>188</v>
-      </c>
       <c r="S62" t="s">
+        <v>189</v>
+      </c>
+      <c r="T62" t="s">
         <v>190</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>191</v>
       </c>
-      <c r="U62" t="s">
-        <v>192</v>
-      </c>
       <c r="V62" t="s">
+        <v>193</v>
+      </c>
+      <c r="W62" t="s">
         <v>194</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>195</v>
-      </c>
-      <c r="X62" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P64" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="Q64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R64" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="R64" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="S64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T64" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="U64" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" t="s">
         <v>210</v>
       </c>
-      <c r="D65" t="s">
-        <v>212</v>
-      </c>
-      <c r="E65" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" t="s">
-        <v>200</v>
-      </c>
-      <c r="G65" t="s">
-        <v>211</v>
-      </c>
       <c r="H65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M65" t="s">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O65" t="s">
         <v>3</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T65" t="s">
+        <v>159</v>
+      </c>
+      <c r="U65" t="s">
+        <v>179</v>
+      </c>
+      <c r="V65" t="s">
+        <v>180</v>
+      </c>
+      <c r="W65" t="s">
         <v>160</v>
       </c>
-      <c r="U65" t="s">
-        <v>180</v>
-      </c>
-      <c r="V65" t="s">
-        <v>181</v>
-      </c>
-      <c r="W65" t="s">
-        <v>161</v>
-      </c>
       <c r="X65" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y65" t="s">
         <v>187</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
@@ -3504,37 +2408,1478 @@
       <c r="M66">
         <v>12</v>
       </c>
+      <c r="Q66">
+        <v>16</v>
+      </c>
+      <c r="T66">
+        <v>19</v>
+      </c>
+      <c r="W66">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C34" xr:uid="{BC04EA6B-7ABC-4F41-B445-85BD841EED41}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24:G25 G28:G31" xr:uid="{8EB66991-CF08-4A71-8014-8711FD25AE04}">
+      <formula1>$O$3:$Q$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25 H28:H31" xr:uid="{A7FB10D4-E26D-43E8-ADD0-A00C795439BF}">
+      <formula1>$O$6:$P$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E16" xr:uid="{5D37F75E-E99C-486D-BA41-1FDEDD4CBB8A}">
+      <formula1>$L$7:$M$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16" xr:uid="{693DC7FA-899E-4A50-9EC8-9CAC0C658A68}">
+      <formula1>$L$6:$P$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F16" xr:uid="{728CB52D-3601-419C-9AA0-1A60F1D3C0FB}">
+      <formula1>$L$8:$Q$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G16" xr:uid="{834B9869-9666-4AED-B502-5407797D4294}">
+      <formula1>$L$9:$M$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C16" xr:uid="{B7869352-E647-426F-815B-2BE87B83FB33}">
+      <formula1>$L$10:$M$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B20:B21" xr:uid="{5409998E-DE6F-49F1-A0A9-AA0C55706578}">
+      <formula1>$L$1:$N$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H23" xr:uid="{8C0C03C7-15A8-422B-954A-720170274B8F}">
+      <formula1>$L$2:$M$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C34" xr:uid="{1EF6BF44-07DB-4252-B529-328E4F543A0D}">
       <formula1>$L$4:$S$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H23" xr:uid="{5D017BA2-4C33-4B7D-A84F-995C964306D5}">
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317FE24-6344-4996-8321-5D3A5D44D647}">
+  <dimension ref="A1:AE66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="3">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="3">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37">
+        <v>1812</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38">
+        <v>1812</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42">
+        <v>490</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>157</v>
+      </c>
+      <c r="L57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>162</v>
+      </c>
+      <c r="I58" t="s">
+        <v>163</v>
+      </c>
+      <c r="J58" t="s">
+        <v>164</v>
+      </c>
+      <c r="K58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" t="s">
+        <v>203</v>
+      </c>
+      <c r="H62" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" t="s">
+        <v>201</v>
+      </c>
+      <c r="J62" t="s">
+        <v>182</v>
+      </c>
+      <c r="K62" t="s">
+        <v>176</v>
+      </c>
+      <c r="L62" t="s">
+        <v>212</v>
+      </c>
+      <c r="M62" t="s">
+        <v>183</v>
+      </c>
+      <c r="N62" t="s">
+        <v>179</v>
+      </c>
+      <c r="O62" t="s">
+        <v>180</v>
+      </c>
+      <c r="P62" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>186</v>
+      </c>
+      <c r="R62" t="s">
+        <v>187</v>
+      </c>
+      <c r="S62" t="s">
+        <v>189</v>
+      </c>
+      <c r="T62" t="s">
+        <v>190</v>
+      </c>
+      <c r="U62" t="s">
+        <v>191</v>
+      </c>
+      <c r="V62" t="s">
+        <v>193</v>
+      </c>
+      <c r="W62" t="s">
+        <v>194</v>
+      </c>
+      <c r="X62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE64" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" t="s">
+        <v>199</v>
+      </c>
+      <c r="G65" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>201</v>
+      </c>
+      <c r="J65" t="s">
+        <v>223</v>
+      </c>
+      <c r="K65" t="s">
+        <v>199</v>
+      </c>
+      <c r="L65" t="s">
+        <v>222</v>
+      </c>
+      <c r="M65" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>221</v>
+      </c>
+      <c r="O65" t="s">
+        <v>3</v>
+      </c>
+      <c r="P65" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>161</v>
+      </c>
+      <c r="R65" t="s">
+        <v>176</v>
+      </c>
+      <c r="S65" t="s">
+        <v>212</v>
+      </c>
+      <c r="T65" t="s">
+        <v>159</v>
+      </c>
+      <c r="U65" t="s">
+        <v>179</v>
+      </c>
+      <c r="V65" t="s">
+        <v>180</v>
+      </c>
+      <c r="W65" t="s">
+        <v>160</v>
+      </c>
+      <c r="X65" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>9</v>
+      </c>
+      <c r="M66">
+        <v>12</v>
+      </c>
+      <c r="Q66">
+        <v>16</v>
+      </c>
+      <c r="T66">
+        <v>19</v>
+      </c>
+      <c r="W66">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C34" xr:uid="{316B0B17-EB92-499A-87E9-68859D4675F0}">
+      <formula1>$L$4:$S$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H23" xr:uid="{81D4C1F3-ACC5-4DF2-B0C7-6651888ED563}">
       <formula1>$L$2:$M$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B20:B21" xr:uid="{CAC3C1D7-6484-44EE-8DFF-ECF83CA7FB8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B20:B21" xr:uid="{8B652F25-CE27-49B2-B695-6E8AEC0CB469}">
       <formula1>$L$1:$N$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C16" xr:uid="{094AB387-E34B-45BE-972C-552B3B681EFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C16" xr:uid="{101100F8-544E-44AC-B249-EF5A1AB35EDD}">
       <formula1>$L$10:$M$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G16" xr:uid="{57BE3854-8F43-4C4F-8286-5A892BC0F4E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G16" xr:uid="{B10BEB57-9B78-4137-A78F-187E7C0DCE64}">
       <formula1>$L$9:$M$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F16" xr:uid="{037E6368-FFAA-48A4-9196-91AE9CAD84C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F16" xr:uid="{73C80069-1C4D-41C8-99C0-0B36C021184D}">
       <formula1>$L$8:$Q$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16" xr:uid="{8306093F-74E8-400F-B45D-1C8E9674DD87}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16" xr:uid="{4A35471C-F8D7-4111-9A06-1C3FE92A2058}">
       <formula1>$L$6:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E16" xr:uid="{7095F5B7-DB47-4878-B269-A7C863E4DDFB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E16" xr:uid="{F42FCEEE-78EF-495A-A9EF-906D8794FF63}">
       <formula1>$L$7:$M$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25 H28:H31" xr:uid="{361B9DBC-7059-4F29-BC57-4981405E18CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25 H28:H31" xr:uid="{623FBE2B-E3E0-4ADE-B3A1-661C6B6D92C3}">
       <formula1>$O$6:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24:G25 G28:G31" xr:uid="{7E1AF9DD-2C60-48FB-A23A-758E74B5CB75}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24:G25 G28:G31" xr:uid="{723D35D6-29AF-4468-A457-7E6BF43B5102}">
       <formula1>$O$3:$Q$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C34CB49-2D30-4719-8FB9-4670AC08F7E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D46AA8-7CC2-4CE4-9844-9C69F548A539}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FXOS DC1 Settings" sheetId="1" r:id="rId1"/>
@@ -1024,12 +1024,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B5DB935A-F99B-4494-9958-0BD74B7EA678}">
+  <we:reference id="01cd1c88-25e9-4daa-b0ef-32dc541ed811" version="1.0.0.0" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA200000068" version="1.0.0.0" store="en-US" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317FE24-6344-4996-8321-5D3A5D44D647}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\FXOSChassisOrchestrator\FXOSChassisOrchestrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D46AA8-7CC2-4CE4-9844-9C69F548A539}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B3754-E4A5-46AB-BD59-F44A86D95AE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="235">
   <si>
     <t># DNS Configuration</t>
   </si>
@@ -698,13 +698,59 @@
   </si>
   <si>
     <t>192.168.1.200</t>
+  </si>
+  <si>
+    <t>CiscoCommunity</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Key ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Currently not working)</t>
+    </r>
+  </si>
+  <si>
+    <t>server-1</t>
+  </si>
+  <si>
+    <t>server-2</t>
+  </si>
+  <si>
+    <t>Syslog Entry Name (Preserve naming format)</t>
+  </si>
+  <si>
+    <t>9.8.2</t>
+  </si>
+  <si>
+    <t>Port-channel30</t>
+  </si>
+  <si>
+    <t>Port-channel10</t>
+  </si>
+  <si>
+    <t>Port-channel20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +762,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -741,11 +795,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,16 +1101,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE66"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -1067,19 +1122,24 @@
     <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1160,6 +1220,15 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>62</v>
       </c>
@@ -1195,6 +1264,7 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="K6" s="1" t="s">
         <v>70</v>
       </c>
@@ -1261,1213 +1331,1001 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>83</v>
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="3">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="3">
+        <v>162</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+      <c r="G17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" t="s">
-        <v>96</v>
+      <c r="A20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="3">
-        <v>162</v>
-      </c>
       <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="3">
-        <v>162</v>
-      </c>
       <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27">
+        <v>1812</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28">
+        <v>1812</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32">
+        <v>490</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37">
-        <v>1812</v>
-      </c>
-      <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38">
-        <v>1812</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42">
-        <v>490</v>
-      </c>
-      <c r="D42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48">
-        <v>27</v>
+        <v>185</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" t="s">
+        <v>164</v>
+      </c>
+      <c r="K48" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50">
-        <v>29</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52" t="s">
+        <v>205</v>
+      </c>
+      <c r="I52" t="s">
+        <v>201</v>
+      </c>
+      <c r="J52" t="s">
+        <v>232</v>
+      </c>
+      <c r="K52" t="s">
+        <v>176</v>
+      </c>
+      <c r="L52" t="s">
+        <v>212</v>
+      </c>
+      <c r="M52" t="s">
+        <v>233</v>
+      </c>
+      <c r="N52" t="s">
+        <v>179</v>
+      </c>
+      <c r="O52" t="s">
+        <v>180</v>
+      </c>
+      <c r="P52" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>186</v>
+      </c>
+      <c r="R52" t="s">
+        <v>187</v>
+      </c>
+      <c r="S52" s="4"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" t="s">
-        <v>157</v>
-      </c>
-      <c r="L57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" t="s">
-        <v>162</v>
-      </c>
-      <c r="I58" t="s">
-        <v>163</v>
-      </c>
-      <c r="J58" t="s">
-        <v>164</v>
-      </c>
-      <c r="K58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" t="s">
-        <v>166</v>
-      </c>
-      <c r="I59" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J54" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q54" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="S54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="T54" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="Y54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="S61" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62">
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" t="s">
-        <v>173</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" t="s">
         <v>197</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F55" t="s">
         <v>199</v>
       </c>
-      <c r="G62" t="s">
-        <v>203</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G55" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" t="s">
         <v>205</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I55" t="s">
         <v>201</v>
       </c>
-      <c r="J62" t="s">
-        <v>182</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="J55" t="s">
+        <v>223</v>
+      </c>
+      <c r="K55" t="s">
+        <v>199</v>
+      </c>
+      <c r="L55" t="s">
+        <v>222</v>
+      </c>
+      <c r="M55" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>221</v>
+      </c>
+      <c r="O55" t="s">
+        <v>3</v>
+      </c>
+      <c r="P55" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>161</v>
+      </c>
+      <c r="R55" t="s">
         <v>176</v>
       </c>
-      <c r="L62" t="s">
+      <c r="S55" t="s">
         <v>212</v>
       </c>
-      <c r="M62" t="s">
-        <v>183</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="T55" t="s">
+        <v>159</v>
+      </c>
+      <c r="U55" t="s">
         <v>179</v>
       </c>
-      <c r="O62" t="s">
+      <c r="V55" t="s">
         <v>180</v>
       </c>
-      <c r="P62" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="W55" t="s">
+        <v>160</v>
+      </c>
+      <c r="X55" t="s">
         <v>186</v>
       </c>
-      <c r="R62" t="s">
+      <c r="Y55" t="s">
         <v>187</v>
       </c>
-      <c r="S62" t="s">
-        <v>189</v>
-      </c>
-      <c r="T62" t="s">
-        <v>190</v>
-      </c>
-      <c r="U62" t="s">
-        <v>191</v>
-      </c>
-      <c r="V62" t="s">
-        <v>193</v>
-      </c>
-      <c r="W62" t="s">
-        <v>194</v>
-      </c>
-      <c r="X62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC64" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE64" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" t="s">
-        <v>211</v>
-      </c>
-      <c r="E65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65" t="s">
-        <v>199</v>
-      </c>
-      <c r="G65" t="s">
-        <v>210</v>
-      </c>
-      <c r="H65" t="s">
-        <v>205</v>
-      </c>
-      <c r="I65" t="s">
-        <v>201</v>
-      </c>
-      <c r="J65" t="s">
-        <v>223</v>
-      </c>
-      <c r="K65" t="s">
-        <v>199</v>
-      </c>
-      <c r="L65" t="s">
-        <v>222</v>
-      </c>
-      <c r="M65" t="s">
-        <v>2</v>
-      </c>
-      <c r="N65" t="s">
-        <v>221</v>
-      </c>
-      <c r="O65" t="s">
-        <v>3</v>
-      </c>
-      <c r="P65" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>161</v>
-      </c>
-      <c r="R65" t="s">
-        <v>176</v>
-      </c>
-      <c r="S65" t="s">
-        <v>212</v>
-      </c>
-      <c r="T65" t="s">
-        <v>159</v>
-      </c>
-      <c r="U65" t="s">
-        <v>179</v>
-      </c>
-      <c r="V65" t="s">
-        <v>180</v>
-      </c>
-      <c r="W65" t="s">
-        <v>160</v>
-      </c>
-      <c r="X65" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <v>5</v>
-      </c>
-      <c r="J66">
-        <v>9</v>
-      </c>
-      <c r="M66">
-        <v>12</v>
-      </c>
-      <c r="Q66">
-        <v>16</v>
-      </c>
-      <c r="T66">
-        <v>19</v>
-      </c>
-      <c r="W66">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24:G25 G28:G31" xr:uid="{8EB66991-CF08-4A71-8014-8711FD25AE04}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G15 G18:G21" xr:uid="{8EB66991-CF08-4A71-8014-8711FD25AE04}">
       <formula1>$O$3:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24:H25 H28:H31" xr:uid="{A7FB10D4-E26D-43E8-ADD0-A00C795439BF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H15 H18:H21" xr:uid="{A7FB10D4-E26D-43E8-ADD0-A00C795439BF}">
       <formula1>$O$6:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E16" xr:uid="{5D37F75E-E99C-486D-BA41-1FDEDD4CBB8A}">
-      <formula1>$L$7:$M$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D16" xr:uid="{693DC7FA-899E-4A50-9EC8-9CAC0C658A68}">
-      <formula1>$L$6:$P$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F16" xr:uid="{728CB52D-3601-419C-9AA0-1A60F1D3C0FB}">
-      <formula1>$L$8:$Q$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G16" xr:uid="{834B9869-9666-4AED-B502-5407797D4294}">
-      <formula1>$L$9:$M$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C16" xr:uid="{B7869352-E647-426F-815B-2BE87B83FB33}">
-      <formula1>$L$10:$M$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B20:B21" xr:uid="{5409998E-DE6F-49F1-A0A9-AA0C55706578}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11" xr:uid="{5409998E-DE6F-49F1-A0A9-AA0C55706578}">
       <formula1>$L$1:$N$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H21:H23" xr:uid="{8C0C03C7-15A8-422B-954A-720170274B8F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H13" xr:uid="{8C0C03C7-15A8-422B-954A-720170274B8F}">
       <formula1>$L$2:$M$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C34" xr:uid="{1EF6BF44-07DB-4252-B529-328E4F543A0D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C24" xr:uid="{1EF6BF44-07DB-4252-B529-328E4F543A0D}">
       <formula1>$L$4:$S$4</formula1>
     </dataValidation>
   </dataValidations>
